--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Proc-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Proc-Tek.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.69746666666666</v>
+        <v>43.28265566666667</v>
       </c>
       <c r="N2">
-        <v>134.0924</v>
+        <v>129.847967</v>
       </c>
       <c r="O2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="P2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="Q2">
-        <v>7.941130717866667</v>
+        <v>7.689769736362668</v>
       </c>
       <c r="R2">
-        <v>71.4701764608</v>
+        <v>69.20792762726401</v>
       </c>
       <c r="S2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="T2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>55.897306</v>
       </c>
       <c r="O3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="P3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="Q3">
         <v>3.310312991061334</v>
@@ -632,10 +632,10 @@
         <v>29.792816919552</v>
       </c>
       <c r="S3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="T3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.170755666666667</v>
+        <v>2.955125333333334</v>
       </c>
       <c r="N4">
-        <v>6.512267</v>
+        <v>8.865376000000001</v>
       </c>
       <c r="O4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999943</v>
       </c>
       <c r="P4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999944</v>
       </c>
       <c r="Q4">
-        <v>0.3856651347626668</v>
+        <v>0.5250193872213335</v>
       </c>
       <c r="R4">
-        <v>3.470986212864001</v>
+        <v>4.725174484992001</v>
       </c>
       <c r="S4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999943</v>
       </c>
       <c r="T4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999944</v>
       </c>
     </row>
   </sheetData>
